--- a/training/output/Resnet34_ViT/W/W3_W0.xlsx
+++ b/training/output/Resnet34_ViT/W/W3_W0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3234265734265734</v>
+        <v>0.5108333333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>3.351028637452559</v>
+        <v>2.632178425788879</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6201923076923077</v>
+        <v>0.7437499999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2.472490267320113</v>
+        <v>1.942508906126022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6940559440559441</v>
+        <v>0.8695833333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>2.125036255879836</v>
+        <v>1.648183047771454</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7508741258741259</v>
+        <v>0.9170833333333334</v>
       </c>
       <c r="B5" t="n">
-        <v>1.91112916577946</v>
+        <v>1.50043711066246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7622377622377623</v>
+        <v>0.896875</v>
       </c>
       <c r="B6" t="n">
-        <v>1.743932442231612</v>
+        <v>1.356633305549622</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7871503496503497</v>
+        <v>0.8695833333333334</v>
       </c>
       <c r="B7" t="n">
-        <v>1.673972232775255</v>
+        <v>1.314482629299164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7736013986013986</v>
+        <v>0.9247916666666666</v>
       </c>
       <c r="B8" t="n">
-        <v>1.607252456925132</v>
+        <v>1.231647551059723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7878059440559441</v>
+        <v>0.926875</v>
       </c>
       <c r="B9" t="n">
-        <v>1.603917181491852</v>
+        <v>1.167775005102158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7764423076923077</v>
+        <v>0.9220833333333334</v>
       </c>
       <c r="B10" t="n">
-        <v>1.585378598083149</v>
+        <v>1.147519528865814</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7792832167832168</v>
+        <v>0.9197916666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>1.545544288375161</v>
+        <v>1.075618416070938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7878059440559441</v>
+        <v>0.9468749999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>1.549145915291526</v>
+        <v>1.031665325164795</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7906468531468532</v>
+        <v>0.9447916666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>1.529775283553384</v>
+        <v>1.049339905381203</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7906468531468532</v>
+        <v>0.9243749999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>1.504987256093459</v>
+        <v>1.019423082470894</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.9572916666666665</v>
       </c>
       <c r="B15" t="n">
-        <v>1.514174250039187</v>
+        <v>0.9896660149097443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7906468531468532</v>
+        <v>0.9345833333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>1.490396906029094</v>
+        <v>0.960713729262352</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.9495833333333333</v>
       </c>
       <c r="B17" t="n">
-        <v>1.474924488501115</v>
+        <v>0.9423046112060547</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.9568749999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>1.48656471750953</v>
+        <v>0.9199406057596207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.934375</v>
       </c>
       <c r="B19" t="n">
-        <v>1.456657046621496</v>
+        <v>0.9187794178724289</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.936875</v>
       </c>
       <c r="B20" t="n">
-        <v>1.465904967351393</v>
+        <v>0.9156611114740372</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.9495833333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>1.448532229120081</v>
+        <v>0.9152908623218536</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.7991695804195804</v>
+        <v>0.941875</v>
       </c>
       <c r="B22" t="n">
-        <v>1.441189570860429</v>
+        <v>0.8905168175697327</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.7991695804195804</v>
+        <v>0.9468749999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>1.441262136806141</v>
+        <v>0.9043551236391068</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.951875</v>
       </c>
       <c r="B24" t="n">
-        <v>1.436246866529638</v>
+        <v>0.8953563272953033</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.9522916666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>1.424832284450531</v>
+        <v>0.8753798007965088</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.9547916666666666</v>
       </c>
       <c r="B26" t="n">
-        <v>1.441225382414731</v>
+        <v>0.8801436871290207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.934375</v>
       </c>
       <c r="B27" t="n">
-        <v>1.437185282056982</v>
+        <v>0.8689666837453842</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.9293750000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>1.422440409660339</v>
+        <v>0.8518988192081451</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7934877622377623</v>
+        <v>0.944375</v>
       </c>
       <c r="B29" t="n">
-        <v>1.432719241489064</v>
+        <v>0.8471033722162247</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.7934877622377623</v>
+        <v>0.9595833333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>1.422526505860415</v>
+        <v>0.8492268621921539</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7934877622377623</v>
+        <v>0.9572916666666665</v>
       </c>
       <c r="B31" t="n">
-        <v>1.435650928453966</v>
+        <v>0.8603808879852295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9445833333333334</v>
       </c>
       <c r="B32" t="n">
-        <v>1.436383122747595</v>
+        <v>0.8508195430040359</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.9395833333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>1.429870009422302</v>
+        <v>0.8338678181171417</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.7991695804195804</v>
+        <v>0.941875</v>
       </c>
       <c r="B34" t="n">
-        <v>1.430463357405229</v>
+        <v>0.8400244265794754</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.9520833333333334</v>
       </c>
       <c r="B35" t="n">
-        <v>1.418588026003404</v>
+        <v>0.8155085444450378</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7934877622377623</v>
+        <v>0.9495833333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>1.437659545378251</v>
+        <v>0.8249248266220093</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.784965034965035</v>
+        <v>0.944375</v>
       </c>
       <c r="B37" t="n">
-        <v>1.464027892459523</v>
+        <v>0.8137219697237015</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.9570833333333334</v>
       </c>
       <c r="B38" t="n">
-        <v>1.439653878862208</v>
+        <v>0.8119097948074341</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.7906468531468532</v>
+        <v>0.941875</v>
       </c>
       <c r="B39" t="n">
-        <v>1.428566927259619</v>
+        <v>0.8268742710351944</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7991695804195804</v>
+        <v>0.9470833333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>1.422418859871951</v>
+        <v>0.8770782500505447</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.9395833333333333</v>
       </c>
       <c r="B41" t="n">
-        <v>1.415539855306799</v>
+        <v>0.8195462077856064</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.9522916666666666</v>
       </c>
       <c r="B42" t="n">
-        <v>1.424381158568642</v>
+        <v>0.8099701404571533</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.9470833333333334</v>
       </c>
       <c r="B43" t="n">
-        <v>1.416976950385354</v>
+        <v>0.804903656244278</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9497916666666667</v>
       </c>
       <c r="B44" t="n">
-        <v>1.421128831126473</v>
+        <v>0.7939492762088776</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.9420833333333334</v>
       </c>
       <c r="B45" t="n">
-        <v>1.420398316600106</v>
+        <v>0.7880998104810715</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.9597916666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>1.410614544695074</v>
+        <v>0.8598142713308334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.954375</v>
       </c>
       <c r="B47" t="n">
-        <v>1.422475999051874</v>
+        <v>0.8079155683517456</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.9493750000000001</v>
       </c>
       <c r="B48" t="n">
-        <v>1.407358987764879</v>
+        <v>0.7955720871686935</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.9568749999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>1.410841985182329</v>
+        <v>0.7949375808238983</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.944375</v>
       </c>
       <c r="B50" t="n">
-        <v>1.411679934371602</v>
+        <v>0.7923036366701126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.949375</v>
       </c>
       <c r="B51" t="n">
-        <v>1.4069498072971</v>
+        <v>0.8089094310998917</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9468749999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>1.407471640543504</v>
+        <v>0.8087491244077682</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.944375</v>
       </c>
       <c r="B53" t="n">
-        <v>1.40433610569347</v>
+        <v>0.7797763347625732</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.946875</v>
       </c>
       <c r="B54" t="n">
-        <v>1.407337622209029</v>
+        <v>0.7879048138856888</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.951875</v>
       </c>
       <c r="B55" t="n">
-        <v>1.403479191389951</v>
+        <v>0.7831094264984131</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="B56" t="n">
-        <v>1.405134564096277</v>
+        <v>0.7791619896888733</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.951875</v>
       </c>
       <c r="B57" t="n">
-        <v>1.404583416201852</v>
+        <v>0.7764460444450378</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.954375</v>
       </c>
       <c r="B58" t="n">
-        <v>1.403735171664845</v>
+        <v>0.7734583169221878</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.951875</v>
       </c>
       <c r="B59" t="n">
-        <v>1.40336368300698</v>
+        <v>0.7825179845094681</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9568749999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>1.402923730286685</v>
+        <v>0.7700068354606628</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.9493750000000001</v>
       </c>
       <c r="B61" t="n">
-        <v>1.40346989848397</v>
+        <v>0.813598707318306</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B62" t="n">
-        <v>1.409543340856379</v>
+        <v>0.7805110663175583</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.951875</v>
       </c>
       <c r="B63" t="n">
-        <v>1.402750275351784</v>
+        <v>0.7926104217767715</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9572916666666667</v>
       </c>
       <c r="B64" t="n">
-        <v>1.406685997139324</v>
+        <v>0.7876296192407608</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B65" t="n">
-        <v>1.404094002463601</v>
+        <v>0.7698096334934235</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>1.400934495709159</v>
+        <v>0.7762191295623779</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8133741258741259</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B67" t="n">
-        <v>1.400981019843708</v>
+        <v>0.7784980237483978</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.9547916666666666</v>
       </c>
       <c r="B68" t="n">
-        <v>1.403099206360904</v>
+        <v>0.7745379507541656</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8133741258741259</v>
+        <v>0.9595833333333333</v>
       </c>
       <c r="B69" t="n">
-        <v>1.399643654173071</v>
+        <v>0.7761984467506409</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>1.398860010233792</v>
+        <v>0.7715920358896255</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.7821241258741259</v>
+        <v>0.941875</v>
       </c>
       <c r="B71" t="n">
-        <v>1.456296248869462</v>
+        <v>0.7652971744537354</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.784965034965035</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B72" t="n">
-        <v>1.407969241792505</v>
+        <v>0.7667219191789627</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.7821241258741259</v>
+        <v>0.9495833333333333</v>
       </c>
       <c r="B73" t="n">
-        <v>1.402091606096788</v>
+        <v>0.7725003212690353</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.7764423076923077</v>
+        <v>0.9493750000000001</v>
       </c>
       <c r="B74" t="n">
-        <v>1.40404768965461</v>
+        <v>0.7837415486574173</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.7821241258741259</v>
+        <v>0.9447916666666666</v>
       </c>
       <c r="B75" t="n">
-        <v>1.405837232416326</v>
+        <v>0.7733529806137085</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.784965034965035</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B76" t="n">
-        <v>1.407016244801608</v>
+        <v>0.7701921612024307</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.7906468531468532</v>
+        <v>0.9597916666666667</v>
       </c>
       <c r="B77" t="n">
-        <v>1.402938967401331</v>
+        <v>0.7599020302295685</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.7906468531468532</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>1.40173386443745</v>
+        <v>0.7732455134391785</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.9522916666666666</v>
       </c>
       <c r="B79" t="n">
-        <v>1.403296010060744</v>
+        <v>0.7568501085042953</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.7934877622377623</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B80" t="n">
-        <v>1.402421777898615</v>
+        <v>0.7634664177894592</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.7934877622377623</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B81" t="n">
-        <v>1.398107702081854</v>
+        <v>0.7695256620645523</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.7934877622377623</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>1.400460134853016</v>
+        <v>0.7572986483573914</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.7934877622377623</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>1.399382352828979</v>
+        <v>0.7572575211524963</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B84" t="n">
-        <v>1.398734098131006</v>
+        <v>0.7528143674135208</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B85" t="n">
-        <v>1.3979473547502</v>
+        <v>0.7577194571495056</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.7991695804195804</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B86" t="n">
-        <v>1.401038830930536</v>
+        <v>0.7515953332185745</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B87" t="n">
-        <v>1.402567825534127</v>
+        <v>0.770870566368103</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.7934877622377623</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B88" t="n">
-        <v>1.411633226004514</v>
+        <v>0.7548195868730545</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.7934877622377623</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B89" t="n">
-        <v>1.407130707393993</v>
+        <v>0.7680851519107819</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B90" t="n">
-        <v>1.397944282401692</v>
+        <v>0.7698084861040115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B91" t="n">
-        <v>1.407892070033333</v>
+        <v>0.7539664655923843</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B92" t="n">
-        <v>1.403016258369792</v>
+        <v>0.7528827041387558</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9722916666666667</v>
       </c>
       <c r="B93" t="n">
-        <v>1.408883181485263</v>
+        <v>0.7481421232223511</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B94" t="n">
-        <v>1.398440539836884</v>
+        <v>0.7539571225643158</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B95" t="n">
-        <v>1.397204534573989</v>
+        <v>0.7458695471286774</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B96" t="n">
-        <v>1.396316067738967</v>
+        <v>0.7480981647968292</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B97" t="n">
-        <v>1.397711981426586</v>
+        <v>0.747374564409256</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B98" t="n">
-        <v>1.4084245020693</v>
+        <v>0.7495449632406235</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>1.413007551973516</v>
+        <v>0.7479759305715561</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B100" t="n">
-        <v>1.398166884075511</v>
+        <v>0.7597354054450989</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B101" t="n">
-        <v>1.410796306350014</v>
+        <v>0.7422340959310532</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7430368065834045</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7441345304250717</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7510297745466232</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7501557618379593</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.740593820810318</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7407537400722504</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7728324830532074</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7458854466676712</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7428505718708038</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7490038871765137</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7501264363527298</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7402409464120865</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7371945977210999</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7486888319253922</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7521928399801254</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7371942400932312</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.734699472784996</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7485449612140656</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7398849278688431</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7376756817102432</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7383668273687363</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7386308014392853</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7439087778329849</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7526029944419861</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7399126142263412</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9545833333333333</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7333178073167801</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7412704974412918</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7480904161930084</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7495671361684799</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7391062527894974</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7378605008125305</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7322000116109848</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.737815260887146</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7374859899282455</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9545833333333333</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7362713515758514</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.752215176820755</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7435630559921265</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.951875</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7349247634410858</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.951875</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7455548197031021</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.954375</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7369479537010193</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.954375</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.739863857626915</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7377571314573288</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7445739954710007</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7281427979469299</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7475245893001556</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.944375</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.737103059887886</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.951875</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7287744879722595</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7469872236251831</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9366666666666666</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7342976629734039</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7308370918035507</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.734462171792984</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7469819039106369</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7267532348632812</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7344200015068054</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7337863743305206</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7280761450529099</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7364132702350616</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9391666666666666</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7425761371850967</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7385331690311432</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9441666666666667</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7282748222351074</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7288764417171478</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7365134805440903</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7377614080905914</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7355832457542419</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7393642365932465</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.954375</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7274297624826431</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7316543310880661</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7325108796358109</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.951875</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7374738454818726</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7327177971601486</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7234317660331726</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.954375</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7309167087078094</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7303355187177658</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7272627055644989</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7241524755954742</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9414583333333334</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7361511290073395</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7338668704032898</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7283947616815567</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7295799404382706</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7389276623725891</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7253594547510147</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7268120348453522</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7300891578197479</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.727852389216423</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7260005325078964</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7253036946058273</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9441666666666667</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7334936112165451</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7294363379478455</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9441666666666667</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7372900098562241</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.720437154173851</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7212151885032654</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7265768796205521</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7331822365522385</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7266523540019989</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7243255972862244</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7240025699138641</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7312227785587311</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.722295418381691</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.723259910941124</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7192193865776062</v>
       </c>
     </row>
   </sheetData>
